--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2653.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2653.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8633264152391457</v>
+        <v>1.972010850906372</v>
       </c>
       <c r="B1">
-        <v>1.43391774688966</v>
+        <v>2.243095397949219</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.191790580749512</v>
       </c>
       <c r="D1">
-        <v>1.414257419813093</v>
+        <v>2.622453689575195</v>
       </c>
       <c r="E1">
-        <v>0.8443974258705972</v>
+        <v>1.715325713157654</v>
       </c>
     </row>
   </sheetData>
